--- a/test.xlsx
+++ b/test.xlsx
@@ -19,12 +19,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>BBB</t>
+    <t>ООО Ромашка</t>
   </si>
   <si>
-    <t>CCC</t>
+    <t>Береза</t>
+  </si>
+  <si>
+    <t>Дуб</t>
   </si>
 </sst>
 </file>
@@ -353,7 +356,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -373,13 +376,16 @@
       <c r="A5">
         <v>79870569350</v>
       </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>79173971407</v>
       </c>
       <c r="B27" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
